--- a/Output/March/productivity_agent/productivity_agent_2022-03-13.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-13.xlsx
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>704</v>
+        <v>754</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="AZ22">
-        <v>217.7319587628866</v>
+        <v>233.1958762886598</v>
       </c>
       <c r="BA22">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="CL22">
-        <v>0.256155245603396</v>
+        <v>0.2743480897513644</v>
       </c>
       <c r="CM22">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="DA22">
-        <v>0.2896136590229312</v>
+        <v>0.2970912263210369</v>
       </c>
     </row>
     <row r="23" spans="1:105">
